--- a/medicine/Enfance/Jeanne_Ryder/Jeanne_Ryder.xlsx
+++ b/medicine/Enfance/Jeanne_Ryder/Jeanne_Ryder.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jeanne Ryder (nom de plume d'Étiennette Jeanne Phalippou) est une traductrice, scénariste et auteure française de romans sentimentaux, de romans policiers et de romans d'aventures pour la jeunesse. Née le 1er juin 1909 à Champigneulles en Meurthe-et-Moselle et morte le 21 février 1999 à Lisieux, dans le Calvados, elle choisit d'utiliser de nombreux pseudonymes, tels qu'Alexiane, José Lacaze, Alex Redry, Étienne Retterdy, Éliane Valery, Yanka, Jeannine Marie, Philippe Jean, Betty Love, Georges Grévy, Fernand Frontal, James Marly, Jean du Brésis, Nelly Delance, Jeannine Mariel, Camille Arnold, Claude Sarville, Alec d'Ayrolles, Jean Dryer, Mariella et Hélène Marval. 
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Etiennette Jeanne Phalippou naît le 1er juin 1909 à Champigneulles en Meurthe-et-Moselle[1]. Mariée à Alexandre Ryder, réalisateur français d'origine polonaise, elle se lance dans l'écriture en 1935 grâce aux éditions Ferenczi &amp; fils. Comme elle l'expliquera elle-même dans les années 1970, tout au long de sa carrière littéraire, elle va multiplier les pseudonymes pour que « l'éditeur paraisse avoir un nombre considérable de collaborateurs »[2]'[3]. Pour choisir un nouveau nom d'auteur, elle puise son inspiration dans l'annuaire téléphonique et le Bottin ou modifie le nom de son mari (par exemple, « Jean Dryer » et « Alex Redry »). Le pseudonyme « Hélène Marval », utilisé notamment dans la collection Floralies des éditions Tallandier, provient quant à lui des prénoms de sa fille « Marie, Hélène, Valérie »[4].
-Sous le pseudonyme de « José Lacaze », elle écrit le scénario du film de propagande anti-nazi, Après Mein Kampf, mes crimes, réalisé par son mari Alexandre Ryder (sous le pseudonyme de « Jean-Jacques Valjean ») et sorti uniquement à l'Olympia[5], le 20 mars 1940[6]. En juin 1940, le film est interdit et les copies saisies et détruites. Le couple doit fuir la capitale et se réfugie à Nîmes, en zone libre[6]'[7]. Durant l'Occupation, elle écrit plusieurs articles sous le pseudonyme de « Sezette de la Placette » pour un quotidien du soir, le Républicain du Gard, puis elle et son mari se rendent à Alès où ils resteront jusqu'à la fin de la guerre[6].  
-Après la Seconde Guerre mondiale, les conditions édictées par les éditeurs sont draconiennes. Pour obtenir un revenu décent, Jeanne Ryder doit produire à la chaîne 4 romans par mois[8]. Par contre, à partir des années 1960, « elle peut se contenter d'écrire 2 ou 3 vrais romans par an »[9].
-Elle meurt le 21 février 1999 à Lisieux dans le Calvados[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Etiennette Jeanne Phalippou naît le 1er juin 1909 à Champigneulles en Meurthe-et-Moselle. Mariée à Alexandre Ryder, réalisateur français d'origine polonaise, elle se lance dans l'écriture en 1935 grâce aux éditions Ferenczi &amp; fils. Comme elle l'expliquera elle-même dans les années 1970, tout au long de sa carrière littéraire, elle va multiplier les pseudonymes pour que « l'éditeur paraisse avoir un nombre considérable de collaborateurs »'. Pour choisir un nouveau nom d'auteur, elle puise son inspiration dans l'annuaire téléphonique et le Bottin ou modifie le nom de son mari (par exemple, « Jean Dryer » et « Alex Redry »). Le pseudonyme « Hélène Marval », utilisé notamment dans la collection Floralies des éditions Tallandier, provient quant à lui des prénoms de sa fille « Marie, Hélène, Valérie ».
+Sous le pseudonyme de « José Lacaze », elle écrit le scénario du film de propagande anti-nazi, Après Mein Kampf, mes crimes, réalisé par son mari Alexandre Ryder (sous le pseudonyme de « Jean-Jacques Valjean ») et sorti uniquement à l'Olympia, le 20 mars 1940. En juin 1940, le film est interdit et les copies saisies et détruites. Le couple doit fuir la capitale et se réfugie à Nîmes, en zone libre'. Durant l'Occupation, elle écrit plusieurs articles sous le pseudonyme de « Sezette de la Placette » pour un quotidien du soir, le Républicain du Gard, puis elle et son mari se rendent à Alès où ils resteront jusqu'à la fin de la guerre.  
+Après la Seconde Guerre mondiale, les conditions édictées par les éditeurs sont draconiennes. Pour obtenir un revenu décent, Jeanne Ryder doit produire à la chaîne 4 romans par mois. Par contre, à partir des années 1960, « elle peut se contenter d'écrire 2 ou 3 vrais romans par an ».
+Elle meurt le 21 février 1999 à Lisieux dans le Calvados.
 </t>
         </is>
       </c>
@@ -547,13 +561,52 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Sous le pseudonyme de Jeanne Ryder
-Les Feux maudits, 1944
+          <t>Sous le pseudonyme de Jeanne Ryder</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les Feux maudits, 1944
 Fantôme d'amour, 1941
 On n'impose pas son amour, 1941
-La nymphe de l'étang, 1941
-Sous le pseudonyme d'Hélène Marval
-Juanita, femme pirate, 1948
+La nymphe de l'étang, 1941</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jeanne_Ryder</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jeanne_Ryder</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous le pseudonyme d'Hélène Marval</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Juanita, femme pirate, 1948
 Esclave de son amour, 1949
 Le bonheur des autres, 1950
 La vraie route, 1950
@@ -579,9 +632,47 @@
 Les Noces de cendre, 1977
 Vint un magicien, 1978
 La Maison de l'Indienne, 1980
-Dans une île parfumée, 1981
-Traductions sous ce pseudonyme
-Christine Herring, Le Briseur de cages, 1980
+Dans une île parfumée, 1981</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jeanne_Ryder</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jeanne_Ryder</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sous le pseudonyme d'Hélène Marval</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Traductions sous ce pseudonyme</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Christine Herring, Le Briseur de cages, 1980
 Bryan Forbes, Sarah, 1980
 Lilian Woodward, Infirmière d'une princesse, 1980
 Frances Murray (en), La Naufragée, 1981
@@ -589,9 +680,43 @@
 Loïs Paxton, Les Trois belles et la bête, 1981
 Rosalind Laker, Sur le plus beau des navires, 1982
 Marjorie MacEvoy, L'Été calabrais, 1982
-Willo Davis Roberts (en), À la recherche de Willie, 1983
-Sous le pseudonyme d'Alexiane
-L'Amoureuse défaite, 1946
+Willo Davis Roberts (en), À la recherche de Willie, 1983</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jeanne_Ryder</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jeanne_Ryder</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sous le pseudonyme d'Alexiane</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>L'Amoureuse défaite, 1946
 L'ange du devoir, 1948
 Rappelle-toi..., 1949
 La confession d'un jeune homme, 1949
@@ -600,15 +725,83 @@
 L'autre amour, 1955
 L'Ange du remords, 1958
 Les noces de cendre, 1962
-La maison des maléfices, 1963
-Sous le pseudonyme de Camille Arnold
-Quand la nuit finira, 1948
+La maison des maléfices, 1963</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jeanne_Ryder</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jeanne_Ryder</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sous le pseudonyme de Camille Arnold</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Quand la nuit finira, 1948
 L'inutile sacrifice, 1950
 La clause secrète, 1952
 Au bord de l'abîme, 1953
-Un Crime passionnel, 1954
-Sous le pseudonyme de Netty Delance
-L'obstacle, 1945
+Un Crime passionnel, 1954</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jeanne_Ryder</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jeanne_Ryder</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sous le pseudonyme de Netty Delance</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>L'obstacle, 1945
 La maison dans les pins, 1945
 La vie est un rêve, 1945
 L'Autre amour, 1946
@@ -623,16 +816,85 @@
 L'intruse au cœur fier, 1950
 L'impossible vengeance, 1952
 Esclave du désir, 1953
-La vengeance d'Agnès, 1954
-Sous le pseudonyme de José Lacaze
-Détresse d'amante, 1939
+La vengeance d'Agnès, 1954</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jeanne_Ryder</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jeanne_Ryder</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sous le pseudonyme de José Lacaze</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Détresse d'amante, 1939
 La Honte d'Evelyne, 1942
 Le pendu du bord du lac, 1945
 L'image poignardée, 1946
 Les Disparues de minuit, 1946
-Elle a traduit en français plusieurs romans de la romancière britannique, Barbara Cartland, en utilisant ce pseudonyme[6].
-Sous le pseudonyme d'Étienne Retterdy
-Monsieur le marquis a disparu, 1940
+Elle a traduit en français plusieurs romans de la romancière britannique, Barbara Cartland, en utilisant ce pseudonyme.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Jeanne_Ryder</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jeanne_Ryder</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Sous le pseudonyme d'Étienne Retterdy</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Monsieur le marquis a disparu, 1940
 Une étoile dans les ténèbres, 1940
 Le rival bien-aimé, 1941
 Le Secret des tarots, 1944
@@ -644,13 +906,81 @@
 La Proue-du-Diable, 1953
 A bord du "Blue Dream", 1953
 Martine, 1955
-Django le gitan, 1957
-Sous le pseudonyme d'Alex Redry
-Son plus beau rôle, 1949
+Django le gitan, 1957</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Jeanne_Ryder</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jeanne_Ryder</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sous le pseudonyme d'Alex Redry</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Son plus beau rôle, 1949
 La maîtresse d'un soir, 1953
-L'atroce soupçon, 1954
-Sous le pseudonyme de Yanka
-L'expiation, 1945
+L'atroce soupçon, 1954</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Jeanne_Ryder</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jeanne_Ryder</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Sous le pseudonyme de Yanka</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>L'expiation, 1945
 Cœurs murés, 1947
 La plus belle aventure, 1947
 Le torrent du remords, 1948
@@ -658,25 +988,127 @@
 L'atroce vérité, 1949
 Idylle en plein ciel, 1949
 Maman veille sur toi, 1950
-Graziella, vedette, 1951
-Sous le pseudonyme d'Éliane Valéry
-Le voleur de rêve, 1947
+Graziella, vedette, 1951</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Jeanne_Ryder</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jeanne_Ryder</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Sous le pseudonyme d'Éliane Valéry</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Le voleur de rêve, 1947
 Le talisman de jade, 1949
 Le petit potier, 1950
 Bohémienne et marquise, 1950
 Le bonheur se mérite, 1950
 Tu n'aimeras point !, 1951
-Le docteur miracle, 1951
-Sous le pseudonyme de Jeannine Mariel
-Frédé et ses amis, 1949
+Le docteur miracle, 1951</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Jeanne_Ryder</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jeanne_Ryder</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Sous le pseudonyme de Jeannine Mariel</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Frédé et ses amis, 1949
 Alibi, 1950
 Drôles de vacances, 1950
 Pour acheter le bonheur, 1950
 Le billet de Gastounet, 1951
 La prisonnière du rêve, 1953
-L'obstacle secret, 1953
-Sous le pseudonyme de Jean du Brésis
-La bague au portrait, 1946
+L'obstacle secret, 1953</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Jeanne_Ryder</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jeanne_Ryder</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Sous le pseudonyme de Jean du Brésis</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>La bague au portrait, 1946
 La corrida tragique, 1946
 Le secret de Maxime Vilgrain, 1948
 Le suicide d'un cœur, 1948
@@ -693,9 +1125,43 @@
 La cage dorée, 1952
 Le rêve interdit, 1952
 Le souffle de la haine, 1952
-Tyrannie, 1953
-Sous le pseudonyme de James Marly
-Tragique menace, 1948
+Tyrannie, 1953</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Jeanne_Ryder</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jeanne_Ryder</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Sous le pseudonyme de James Marly</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Tragique menace, 1948
 L'erreur, 1950
 Le baiser qui venge, 1951</t>
         </is>
